--- a/pred_ohlcv/54_21/2020-01-21 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-706076.1347000002</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-631120.1633000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-623120.1633000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-623313.6622000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-610273.0659000002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-618196.2891000002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-621915.5672000002</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-627838.0272000001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-624876.8020000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-624876.8020000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-624876.8020000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-624876.8020000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-627869.9108000002</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-629661.3050000002</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-629661.3050000002</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-629661.3050000002</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-635540.8936000002</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-721202.9896000002</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-718302.9896000002</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-12718302.9896</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-12714958.3049</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-12808650.6754</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-12896839.17028225</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-12867049.97168225</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-11882578.48788225</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-11885611.97788225</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-11884461.97788225</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-11920662.68258225</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-11960110.21818225</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-11948753.83408225</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-11948753.83408225</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-11977853.93678225</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-11976673.79478225</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-11973680.51958225</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-11971180.51958225</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-12113564.76268225</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-12112564.76268225</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-12490876.78928225</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-12490876.78928225</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-14057233.12828225</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-14026744.46598225</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-14037011.62358225</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-14037011.62358225</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-14037011.62358225</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-21 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-706076.1347000002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-623313.6622000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-610273.0659000002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-618196.2891000002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-621915.5672000002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-627838.0272000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-624876.8020000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-624876.8020000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-624876.8020000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-624876.8020000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-627869.9108000002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-629661.3050000002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-629661.3050000002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-629661.3050000002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-635540.8936000002</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-721202.9896000002</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-718302.9896000002</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-12718302.9896</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-12714958.3049</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-12808650.6754</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-12896839.17028225</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-12867049.97168225</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-11882578.48788225</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-11885611.97788225</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-11884461.97788225</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-11920662.68258225</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-11960110.21818225</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-11948753.83408225</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-11948753.83408225</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-11977853.93678225</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-11976673.79478225</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-11973680.51958225</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-11971180.51958225</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-12113564.76268225</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-12112564.76268225</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-12490876.78928225</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-12490876.78928225</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-12490876.78928225</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-12490876.78928225</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-14057233.12828225</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-14057233.12828225</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-14026744.46598225</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-14037011.62358225</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-14037011.62358225</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-14037011.62358225</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
